--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr2_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr2_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.289297655298491</v>
+        <v>0.28918045258416036</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29167236838504768</v>
+        <v>0.29157142997919322</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.00018145377804015749</v>
+        <v>0.00018342124205140566</v>
       </c>
       <c r="E3" s="0">
-        <v>3.5506521218934978e-05</v>
+        <v>3.6376800139662587e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>-7.6393495151681781e-05</v>
+        <v>-7.6067278141884526e-05</v>
       </c>
       <c r="G3" s="0">
-        <v>3.7716741694465295e-05</v>
+        <v>3.8348851694202055e-05</v>
       </c>
       <c r="H3" s="0">
-        <v>-1.5081081855819064e-05</v>
+        <v>-1.5015021977388299e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>0.00018089474349206974</v>
+        <v>0.00018293432122544763</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-0.00040277886646417072</v>
+        <v>-0.00040277925099047041</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.28772509961131765</v>
+        <v>0.28743842958423926</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.00025596991431152394</v>
+        <v>-0.00032848497608088916</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-7.5448325271476083e-06</v>
+        <v>-7.5417958425524894e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>1.2134102315474254e-06</v>
+        <v>1.2179357435250763e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-3.3872690376751233e-05</v>
+        <v>-3.372976759955384e-05</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0005581852525526756</v>
+        <v>-0.00055406131257532804</v>
       </c>
       <c r="J4" s="0">
-        <v>-4.5046318294410626e-05</v>
+        <v>-4.559510396636705e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>5.9775247942206455e-05</v>
+        <v>5.9777127791371676e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.2985494826660175</v>
+        <v>0.29861280266031204</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0011470327452532444</v>
+        <v>0.0012256390847313974</v>
       </c>
       <c r="D5" s="0">
-        <v>4.2670103036163975e-05</v>
+        <v>4.9722471844633673e-05</v>
       </c>
       <c r="E5" s="0">
-        <v>-7.0533720768583459e-05</v>
+        <v>-7.1073350177880035e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00034781911967112839</v>
+        <v>0.00034930460755964288</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0006106641914935656</v>
+        <v>-0.00061073732516629751</v>
       </c>
       <c r="H5" s="0">
-        <v>-1.491758037399376e-05</v>
+        <v>-1.4910591041383004e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>9.6321312223570536e-06</v>
+        <v>9.6753796497450772e-06</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>6.6252922653664559e-05</v>
+        <v>6.6252184312498574e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.28903031938032042</v>
+        <v>0.28896203069513654</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0057010077045120166</v>
+        <v>0.0056912862460800039</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>4.1506271237346967e-05</v>
+        <v>4.1505710935509671e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>-5.8598943040010831e-05</v>
+        <v>-5.8578573851324743e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-4.6848191048714239e-05</v>
+        <v>-4.697425129123681e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.001667423385281863</v>
+        <v>-0.001671452166952321</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-7.5480119776649701e-07</v>
+        <v>-7.5493792067726773e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.28201151233989247</v>
+        <v>0.28196001969777795</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0015514273907883259</v>
+        <v>-0.0015496371046907684</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00013672404414449886</v>
+        <v>-0.00013656846288508028</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00072911944052743449</v>
+        <v>-0.00072841770695212789</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00019939523440310248</v>
+        <v>0.00019974844129421287</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>7.6757287649405472e-05</v>
+        <v>7.6632365911690766e-05</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.00023105699412584446</v>
+        <v>-0.00023105715458537901</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.27869557533455352</v>
+        <v>0.27874960665514231</v>
       </c>
       <c r="C8" s="0">
-        <v>0.0043162074586987073</v>
+        <v>0.0042925982173278553</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-2.7087411634574039e-05</v>
+        <v>-2.7093959137777708e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00022211609241116494</v>
+        <v>-0.00022216635912498519</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-1.0866412081006597e-05</v>
+        <v>-1.0895124556589706e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.00062591251832085787</v>
+        <v>-0.00062436326470897909</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.00016813721189540276</v>
+        <v>0.00016813559023215463</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.26304233831748552</v>
+        <v>0.26311781192127431</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0003128472430594429</v>
+        <v>0.00031595546212201934</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.00093875077473249313</v>
+        <v>-0.00093868145605056832</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0055916886674324583</v>
+        <v>-0.0055899936746864271</v>
       </c>
       <c r="G9" s="0">
-        <v>7.505548490993567e-05</v>
+        <v>7.456828516663226e-05</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00016279898936440572</v>
+        <v>-0.00016275897599123392</v>
       </c>
       <c r="I9" s="0">
-        <v>1.2651567558748861e-05</v>
+        <v>1.2657203450990205e-05</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.00015011589033425699</v>
+        <v>-0.00015011602409586988</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.2835728759723416</v>
+        <v>0.28321636405378825</v>
       </c>
       <c r="C10" s="0">
-        <v>0.0075846052313396821</v>
+        <v>0.0077001772948936996</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-4.3504081684551767e-06</v>
+        <v>-4.3493005985976595e-06</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00015444676837696121</v>
+        <v>-0.00015415012392969144</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-2.6456274364019698e-06</v>
+        <v>-2.6443349934821676e-06</v>
       </c>
       <c r="I10" s="0">
-        <v>0.00026760732878571274</v>
+        <v>0.00026566884120989931</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0017508392012371462</v>
+        <v>-0.0017601302247825504</v>
       </c>
       <c r="K10" s="0">
-        <v>-2.8982524746257177e-06</v>
+        <v>-2.896520223005794e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.28944601412047866</v>
+        <v>0.28913798681628533</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.0036461946996773288</v>
+        <v>0.0036507697710153292</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.00047859356812200672</v>
+        <v>-0.00047364965985033852</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.0021615809734945291</v>
+        <v>-0.0021468439024233789</v>
       </c>
       <c r="G11" s="0">
-        <v>0.00021027987812325302</v>
+        <v>0.00021072328399143937</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.00013135830194302816</v>
+        <v>-0.00013069637814786637</v>
       </c>
       <c r="I11" s="0">
-        <v>0.00045206113718324357</v>
+        <v>0.00045386490399289346</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.0026395137341379549</v>
+        <v>-0.0026395142134688077</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.31040215093789242</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.011990510800249612</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>-7.4353002106160982e-06</v>
+      </c>
+      <c r="F12" s="0">
+        <v>2.1018870078549092e-06</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-3.4412235264679504e-07</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.0019232344723581691</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>8.2187596686822406e-05</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr2_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr2_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,12 +388,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="16.24609375" customWidth="true"/>
+    <col min="3" max="3" width="15.24609375" customWidth="true"/>
     <col min="4" max="4" width="15.64453125" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.28918045258416036</v>
+        <v>0.28904207615761435</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29157142997919322</v>
+        <v>0.29148379231633542</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.00018342124205140566</v>
+        <v>0.00018375113555124168</v>
       </c>
       <c r="E3" s="0">
-        <v>3.6376800139662587e-05</v>
+        <v>3.6095496876046051e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>-7.6067278141884526e-05</v>
+        <v>-7.5779499794595759e-05</v>
       </c>
       <c r="G3" s="0">
-        <v>3.8348851694202055e-05</v>
+        <v>3.9079550073158006e-05</v>
       </c>
       <c r="H3" s="0">
-        <v>-1.5015021977388299e-05</v>
+        <v>-1.5022446181624019e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>0.00018293432122544763</v>
+        <v>0.00018572684857482522</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-0.00040277925099047041</v>
+        <v>-0.00040277974463032162</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.28743842958423926</v>
+        <v>0.28741822437623277</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.00032848497608088916</v>
+        <v>-0.00035022114301787413</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-7.5417958425524894e-06</v>
+        <v>-7.5396425107124149e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>1.2179357435250763e-06</v>
+        <v>1.2150906039535411e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-3.372976759955384e-05</v>
+        <v>-3.3601273086743512e-05</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.00055406131257532804</v>
+        <v>-0.00055023845464147257</v>
       </c>
       <c r="J4" s="0">
-        <v>-4.559510396636705e-05</v>
+        <v>-4.8080985794349119e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>5.9777127791371676e-05</v>
+        <v>5.9777269710847847e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29861280266031204</v>
+        <v>0.29844747464670884</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0012256390847313974</v>
+        <v>0.0011979403329166738</v>
       </c>
       <c r="D5" s="0">
-        <v>4.9722471844633673e-05</v>
+        <v>5.2694202273686408e-05</v>
       </c>
       <c r="E5" s="0">
-        <v>-7.1073350177880035e-05</v>
+        <v>-7.1545152551859322e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00034930460755964288</v>
+        <v>0.00034990851989425293</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.00061073732516629751</v>
+        <v>-0.00061220293382916369</v>
       </c>
       <c r="H5" s="0">
-        <v>-1.4910591041383004e-05</v>
+        <v>-1.4923096736351191e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>9.6753796497450772e-06</v>
+        <v>9.6653684055019308e-06</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>6.6252184312498574e-05</v>
+        <v>6.6252648130593617e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.28896203069513654</v>
+        <v>0.28883303816189321</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0056912862460800039</v>
+        <v>0.0057263261891632878</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>4.1505710935509671e-05</v>
+        <v>4.1506231473450561e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>-5.8578573851324743e-05</v>
+        <v>-5.8369946981448732e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-4.697425129123681e-05</v>
+        <v>-4.6613937968383298e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.001671452166952321</v>
+        <v>-0.0016708952935193153</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-7.5493792067726773e-07</v>
+        <v>-7.5473159993899586e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.28196001969777795</v>
+        <v>0.28197109158138656</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0015496371046907684</v>
+        <v>-0.001537208637768664</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00013656846288508028</v>
+        <v>-0.00013372125502942903</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00072841770695212789</v>
+        <v>-0.00070884947832565556</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00019974844129421287</v>
+        <v>0.00020023480880575838</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>7.6632365911690766e-05</v>
+        <v>7.6604932734971413e-05</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.00023105715458537901</v>
+        <v>-0.00023105804187634194</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.27874960665514231</v>
+        <v>0.2789957559241969</v>
       </c>
       <c r="C8" s="0">
-        <v>0.0042925982173278553</v>
+        <v>0.004456196842042408</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-2.7093959137777708e-05</v>
+        <v>-2.7104047197868318e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00022216635912498519</v>
+        <v>-0.0002224703247043153</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-1.0895124556589706e-05</v>
+        <v>-1.0906812659200625e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.00062436326470897909</v>
+        <v>-0.00062238344503189199</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.00016813559023215463</v>
+        <v>0.00016813657651060243</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.26311781192127431</v>
+        <v>0.26333093918906775</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.00031595546212201934</v>
+        <v>0.00029811184218455077</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.00093868145605056832</v>
+        <v>-0.00094137273547837005</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0055899936746864271</v>
+        <v>-0.0056009272022572365</v>
       </c>
       <c r="G9" s="0">
-        <v>7.456828516663226e-05</v>
+        <v>7.5033987068870783e-05</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00016275897599123392</v>
+        <v>-0.00016326316848587816</v>
       </c>
       <c r="I9" s="0">
-        <v>1.2657203450990205e-05</v>
+        <v>1.2633755136873376e-05</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.00015011602409586988</v>
+        <v>-0.00015011583274765483</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.28321636405378825</v>
+        <v>0.28343997567279572</v>
       </c>
       <c r="C10" s="0">
-        <v>0.0077001772948936996</v>
+        <v>0.0076198219062413421</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-4.3493005985976595e-06</v>
+        <v>-4.3448813747539356e-06</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00015415012392969144</v>
+        <v>-0.00015567482077939401</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-2.6443349934821676e-06</v>
+        <v>-2.6373167824586063e-06</v>
       </c>
       <c r="I10" s="0">
-        <v>0.00026566884120989931</v>
+        <v>0.00026803464878150395</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0017601302247825504</v>
+        <v>-0.0017170152033989254</v>
       </c>
       <c r="K10" s="0">
-        <v>-2.896520223005794e-06</v>
+        <v>-2.8956940918978269e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.28913798681628533</v>
+        <v>0.2892913315510775</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.0036507697710153292</v>
+        <v>0.0036005779973285203</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.00047364965985033852</v>
+        <v>-0.00049580971145372671</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.0021468439024233789</v>
+        <v>-0.0022109869380709051</v>
       </c>
       <c r="G11" s="0">
-        <v>0.00021072328399143937</v>
+        <v>0.00021383578985267318</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.00013069637814786637</v>
+        <v>-0.00013376021022879715</v>
       </c>
       <c r="I11" s="0">
-        <v>0.00045386490399289346</v>
+        <v>0.00046391691153598085</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.0026395142134688077</v>
+        <v>-0.0026395131522846116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.31040215093789242</v>
+        <v>0.30732450802278588</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.011990510800249612</v>
+        <v>-0.022285437978412599</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>-7.4353002106160982e-06</v>
+        <v>-7.3981056037505875e-07</v>
       </c>
       <c r="F12" s="0">
-        <v>2.1018870078549092e-06</v>
+        <v>0.00070371862602058974</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-3.4412235264679504e-07</v>
+        <v>7.3048828881118008e-05</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.0019232344723581691</v>
+        <v>-0.0027293782318547023</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>8.2187596686822406e-05</v>
+        <v>6.8305318184136432e-05</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.27045960805364722</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.047211348479641223</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.0049309261259235871</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.0013002354172268139</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.00086355174529830728</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-0.00019749660964518863</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.00054452439062414502</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.0053586975331227915</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>-0.049934653849547317</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.23135714687552283</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>3.9069543315384512e-05</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-1.7669990845456874e-05</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-5.2248998778295553e-06</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.021528971063165682</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>5.8377661238395717e-06</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr2_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr2_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,11 +463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="12.64453125" customWidth="true"/>
+    <col min="2" max="2" width="14.24609375" customWidth="true"/>
     <col min="3" max="3" width="15.24609375" customWidth="true"/>
     <col min="4" max="4" width="15.64453125" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.28904207615761435</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.29148379231633542</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.28741822437623277</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.29844747464670884</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.28883303816189321</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.28197109158138656</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.2789957559241969</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.26333093918906775</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.28343997567279572</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.2892913315510775</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.30732450802278588</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.27045960805364722</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.049934653849547317</v>
+        <v>-0.011393460339678696</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.23135714687552283</v>
+        <v>-0.21333073928793622</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>3.9069543315384512e-05</v>
+        <v>2.8000609051772624e-05</v>
       </c>
       <c r="F14" s="0">
-        <v>-1.7669990845456874e-05</v>
+        <v>-0.00062440838258727329</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-5.2248998778295553e-06</v>
+        <v>-0.0032915844951661435</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.021528971063165682</v>
+        <v>-0.021668247691195169</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>5.8377661238395717e-06</v>
+        <v>-0.0027591794526197755</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.096101971333467817</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.1377010254614596</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.0048512799906839698</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.012056092372612476</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.011239472964506713</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.0031033223130160353</v>
       </c>
     </row>
   </sheetData>
